--- a/Time-Table-2023-24/Subject-Selection-Details.xlsx
+++ b/Time-Table-2023-24/Subject-Selection-Details.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AY-2022-23\Time-Table-2023-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AY-2022-23\Time-Table-2022-23\Time-Table-2023-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17194" windowHeight="5384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17194" windowHeight="5384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Theory" sheetId="1" r:id="rId1"/>
-    <sheet name="Lab-1" sheetId="2" r:id="rId2"/>
-    <sheet name="Lab" sheetId="3" r:id="rId3"/>
+    <sheet name="Subject-Selection-info" sheetId="4" r:id="rId2"/>
+    <sheet name="Lab-1" sheetId="2" r:id="rId3"/>
+    <sheet name="Lab" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -823,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D32"/>
     </sheetView>
   </sheetViews>
@@ -1294,6 +1295,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1302,7 +1315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
